--- a/ds.xlsx
+++ b/ds.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{77503FB7-1942-44C9-A40A-66C9E67E516B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C71D9E2E-F887-4B2F-AB60-D7B2B952B0EC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,9 +20,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>威威</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>威震天下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无聊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -348,17 +356,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/ds.xlsx
+++ b/ds.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C71D9E2E-F887-4B2F-AB60-D7B2B952B0EC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9713D20A-B644-49A7-AEDB-4CCD7A9FFB5F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>威威</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,6 +31,14 @@
   </si>
   <si>
     <t>无聊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀杀杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擦擦擦啊是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -356,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -379,6 +387,16 @@
         <v>2</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
